--- a/EMC.xlsx
+++ b/EMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiro\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E47A2C9-6605-4461-91D9-204993E7290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED260416-4A09-4331-B1B1-D177D1E4B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FBB120A-5DE4-4E9B-A059-8041F43FE7B9}"/>
   </bookViews>
@@ -166,13 +166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,9 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -413,9 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -423,23 +417,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,99 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87215</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC799D4-F531-4A11-B17C-C8325792B890}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="4276725"/>
-          <a:ext cx="2457450" cy="963515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8815C34-D7AC-46A2-B687-CC92862D4D7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458076" y="5343525"/>
-          <a:ext cx="5524500" cy="1442799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,7 +757,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,10 +772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -902,7 +809,7 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>26.8</v>
       </c>
       <c r="C3" s="1">
@@ -933,7 +840,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="C4" s="1">
@@ -1055,16 +962,16 @@
       <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1100,7 +1007,7 @@
         <f>(B11+C11)/2</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f>+I11*D11</f>
         <v>29.400000000000002</v>
       </c>
@@ -1141,11 +1048,11 @@
         <f t="shared" ref="H12:H16" si="2">+(D12/$D$17)*100</f>
         <v>15.625</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" ref="I12:I16" si="3">(B12+C12)/2</f>
         <v>13.8</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" ref="J12:J16" si="4">+I12*D12</f>
         <v>69</v>
       </c>
@@ -1186,11 +1093,11 @@
         <f t="shared" si="2"/>
         <v>28.125</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="3"/>
         <v>17.8</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="4"/>
         <v>160.20000000000002</v>
       </c>
@@ -1204,38 +1111,38 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="B14" s="22">
         <f t="shared" si="7"/>
         <v>20.3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>23.3</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="22">
         <v>11</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="22">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="22">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="22">
         <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="22">
         <f t="shared" si="2"/>
         <v>34.375</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="23">
         <f t="shared" si="3"/>
         <v>21.8</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="24">
         <f t="shared" si="4"/>
         <v>239.8</v>
       </c>
@@ -1276,11 +1183,11 @@
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="3"/>
         <v>25.8</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>103.2</v>
       </c>
@@ -1321,11 +1228,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>29.8</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1339,10 +1246,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="1">
         <f>+SUM(D11:D16)</f>
         <v>32</v>
@@ -1354,8 +1261,8 @@
         <f>SUM(H11:H16)</f>
         <v>100</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="13">
+      <c r="I17" s="8"/>
+      <c r="J17" s="12">
         <f>+SUM(J11:J16)</f>
         <v>601.6</v>
       </c>
@@ -1369,7 +1276,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="L18">
@@ -1378,10 +1285,10 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J19" s="12"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="26">
@@ -1390,16 +1297,16 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="26">
         <v>135.936364</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="26">
@@ -1407,7 +1314,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="26">
@@ -1416,7 +1323,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="26">
@@ -1425,7 +1332,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="26">
@@ -1434,17 +1341,17 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="19">
         <v>0.34375</v>
       </c>
     </row>
@@ -1455,6 +1362,5 @@
     <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>